--- a/Charlotte NC 2019 Decision Sample/Charlotte NC 2019 Decision sample result.xlsx
+++ b/Charlotte NC 2019 Decision Sample/Charlotte NC 2019 Decision sample result.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nghie\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911755C8-0650-4F00-BE20-78B155BD5F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1342EFFE-708D-40EE-B12E-D9FA9F056324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="74">
   <si>
     <t>FILE</t>
   </si>
@@ -28,12 +28,15 @@
     <t>CASE_NO</t>
   </si>
   <si>
+    <t>Tax Parcel Number</t>
+  </si>
+  <si>
+    <t>Date at top</t>
+  </si>
+  <si>
     <t>ADDRESS</t>
   </si>
   <si>
-    <t>WARD</t>
-  </si>
-  <si>
     <t>REQUEST</t>
   </si>
   <si>
@@ -46,91 +49,199 @@
     <t>DECISION</t>
   </si>
   <si>
-    <t>2019-080ADApprovalLetter.pdf</t>
-  </si>
-  <si>
-    <t>2019-0</t>
-  </si>
-  <si>
-    <t>1009 E. 35th Street</t>
-  </si>
-  <si>
-    <t>a 1.8 foot encroachment of a home into the 5 foot side yard</t>
-  </si>
-  <si>
-    <t>The property is zoned R-5, a 5 foot side yard is required, a physical survey showed a 1.8 foot encroachment, the encroachment was caused by an inadvertent error, the encroachment is minor and not easily detectable, and the deviation is within the dimensional measurement allowed by the Zoning Ordinance.</t>
-  </si>
-  <si>
-    <t>The requested deviation was caused by an inadvertent error that occurred during the construction of the home, the encroachment is minor and will not be easily detectable or visible, and the requested deviation is within the dimensional measurement allowed by Section 4.107(2) of the Zoning Ordinance.</t>
+    <t>2019-009DecisionLetter.pdf</t>
+  </si>
+  <si>
+    <t>2019-012ADApprovalLetter.pdf</t>
+  </si>
+  <si>
+    <t>2019-014DecisionLetter.pdf</t>
+  </si>
+  <si>
+    <t>2019-032EXTApprovalLetter.pdf</t>
+  </si>
+  <si>
+    <t>2019-053ADApprovalLetter.pdf</t>
+  </si>
+  <si>
+    <t>2019-009</t>
+  </si>
+  <si>
+    <t>2019-012AD</t>
+  </si>
+  <si>
+    <t>2019-014</t>
+  </si>
+  <si>
+    <t>2019-032Ext</t>
+  </si>
+  <si>
+    <t>2019-053AD</t>
+  </si>
+  <si>
+    <t>173-011-06</t>
+  </si>
+  <si>
+    <t>211-293-31</t>
+  </si>
+  <si>
+    <t>January 29, 2019</t>
+  </si>
+  <si>
+    <t>March 1, 2019</t>
+  </si>
+  <si>
+    <t>March 26, 2019</t>
+  </si>
+  <si>
+    <t>May 6, 2019</t>
+  </si>
+  <si>
+    <t>August 5, 2019</t>
+  </si>
+  <si>
+    <t>601 Berkeley Avenue</t>
+  </si>
+  <si>
+    <t>4446 Applegate Road</t>
+  </si>
+  <si>
+    <t>6518 Park Road</t>
+  </si>
+  <si>
+    <t>7521 WINDYRUSH ROAD</t>
+  </si>
+  <si>
+    <t>A 9 foot variance from the required 15 foot street side yard to allow for a second story addition to be built in the established street side yard using the existing footprint of the single family dwelling.</t>
+  </si>
+  <si>
+    <t>The applicant requested a variance to allow a portion of the existing home to encroach approximately 9 feet into the required street side yard.</t>
+  </si>
+  <si>
+    <t>The applicant is requesting a variance for a 9 foot reduction from the required 15 foot street side yard along Euclid Avenue to allow a second story addition to be built over a nonconforming portion of the existing structure.</t>
+  </si>
+  <si>
+    <t>A second story addition to be visually integrated with the existing home.</t>
+  </si>
+  <si>
+    <t>none found</t>
+  </si>
+  <si>
+    <t>allow a 1 foot encroachment of the right side of the principal building into the 5 foot minimum side yard</t>
+  </si>
+  <si>
+    <t>A 11 foot variance from the required 45 foot rear yard to allow an existing addition to remain</t>
+  </si>
+  <si>
+    <t>a variance to allow an approximately 12 foot encroachment into the required rear yard</t>
+  </si>
+  <si>
+    <t>a variance of 11 feet from the required 45 foot rear yard to allow the existing addition to the home to remain in its current location</t>
+  </si>
+  <si>
+    <t>7 foot variance from the required 20' transitional setback along South Boulevard to allow for the construction of a new facade on an existing building</t>
+  </si>
+  <si>
+    <t>allow a 0.8 foot encroachment of the front of the principal building into the 30-foot required (front) setback</t>
+  </si>
+  <si>
+    <t>The applicant is Cooper Morrison (represented by John B. Fryday, AIA/ASID), the proposed site is located at 601 Berkeley Avenue, the property is zoned R-4 (single family), the property is located in the Dilworth Historic District-Overlay, and on April 17, 2018 a request to demolish the existing home was delayed for 365 days by the Historic District Commission.</t>
+  </si>
+  <si>
+    <t>The structure was built around 1951, the minimum setback for a residential use in the R-4 zoning district is 30 feet, the required street side yard for the subject property is 15 feet, the left exterior wall of the house encroaches approximately 9 feet into the required street side yard, and the existing home was constructed prior to the current zoning regulations.</t>
+  </si>
+  <si>
+    <t>The applicant is requesting a variance for a 9 foot reduction from the required 15 foot street side yard along Euclid Avenue to allow a second story addition to be built over a nonconforming portion of the existing structure; the physical footprint of the existing house will not change and the 9 foot encroachment will not be increased; the encroachment is not easy to detect; the subject lot is a corner lot which requires a greater side yard dimension when abutting a street than the typical side yard dimension when abutting another lot.</t>
+  </si>
+  <si>
+    <t>The applicant is requesting a second story addition to be visually integrated with the existing home, which will not alter the essential character of the neighborhood, must be reviewed and approved by the Historic District Commission, will allow for preservation and the continued use of the existing structure as an alternative to demolition, and will not adversely affect adjacent or contiguous properties.</t>
+  </si>
+  <si>
+    <t>The Board granted the variance request, and specified that any permits required must reference the variance case number. The Board also specified that the decision will expire if a permit or certificate of occupancy is not obtained within two years.</t>
+  </si>
+  <si>
+    <t>The property is zoned R-4 (Single-Family) and is required a minimum 5 foot side yard by the Zoning Ordinance Section 9.205(1)(£); a building permit B2861676 was issued for a 149 sq. ft. addition to the right side of the dwelling; the project was inspected and issued a Certificate of Compliance on February 4, 2016; the proposed deviation was caused by an inadvertent error.</t>
+  </si>
+  <si>
+    <t>The applicant's physical survey showed a 1 foot encroachment into the 5 foot setback; the encroachment was discovered when the survey was completed for the sale of the property; the encroachment is minor and will not be easily detectable or visible; the requested deviation is within the dimensional measurement allowed by Section 4.107(2) of the Zoning Ordinance.</t>
+  </si>
+  <si>
+    <t>The applicants are the property owners, Dragan and Nermina Anic; the site is located at 6518 Park Road; the property is zoned R-3 (single family); the site comprises of approximately 0.29 acres; a minimum rear yard of 45 feet is required for the subject property; the single family structure that currently occupies the site was built in 1968; and a permit was issued for a heated living room and sunroom addition on the rear of the home on September 18, 2013.</t>
+  </si>
+  <si>
+    <t>The permit listed the rear yard as 45 feet, however, the permit application plot plan showed 33 feet, which is an approximately 12 foot encroachment. The addition was inspected and issued a certificate of compliance on June 11, 2015. A Zoning Notice of Violation was issued on December 6, 2018, that included the encroachment of the addition into the required rear yard. A survey was provided on January 15, 2019, to show the exact encroachment of 10.2 feet into the rear yard.</t>
+  </si>
+  <si>
+    <t>The applicants are requesting a variance of 11 feet from the required 45 foot rear yard to allow the existing addition to remain in its current location. The 2013 rear addition was permitted, inspected, and issued a certificate of compliance. Code Section 12.106 allows certain unheated extensions of a single family home to encroach up to 25% of the depth of the required rear yard. An unheated sunroom addition would be permitted an encroachment of up to 11.25 feet into the 45 foot required rear yard. The hardship is not a result from actions taken by the current or previous property owners.</t>
+  </si>
+  <si>
+    <t>The addition was permitted and constructed in 2013, has existed for 5 years, is on the rear of the home, and is not easily detectable due to a privacy fence. Strict application of the ordinance would require a portion of the home to be demolished, resulting in an unnecessary hardship.</t>
+  </si>
+  <si>
+    <t>The requested variance is consistent with the spirit, purpose, and intent of the Zoning Ordinance, the hardship does not result from actions taken by the applicant or the property owner, and the hardship results from conditions that are peculiar to the property (location, size or topography).</t>
+  </si>
+  <si>
+    <t>Alfaro Holdings LLC requested an extension of a previously granted 7 foot variance from the required 20' transitional setback along South Boulevard to allow for the construction of a new facade on an existing building. The extension was granted and will expire on May 18, 2020.</t>
+  </si>
+  <si>
+    <t>The Board granted an extension of the variance to May 18, 2019 in accordance with Code Section 5.111, and all approvals and restrictions associated with the original Board approval for Case #2016-022 shall apply.</t>
+  </si>
+  <si>
+    <t>The proposed deviation was caused by an inadvertent error during construction, a physical survey shows the encroachment into the 30-foot setback, the encroachment was discovered when the survey was completed, and the encroachment is minor.</t>
+  </si>
+  <si>
+    <t>The petitioner requested a deviation, which is allowed by Section 4.107(2) of the Zoning Ordinance, and the Planning Coordinator granted the administrative deviation approval.</t>
+  </si>
+  <si>
+    <t>The Board granted a 9 foot variance from the required 15 foot street side yard to allow for a second story addition to be built in the established street side yard using the existing footprint of the single family dwelling, based on the applicant's request, the proposed site's location, zoning, and the Historic District Commission's delay of the request to demolish the existing home.</t>
+  </si>
+  <si>
+    <t>The existing home was constructed prior to the current zoning regulations and the portion of the home which encroaches into the required street side yard is considered a legal nonconforming structure.</t>
+  </si>
+  <si>
+    <t>The physical footprint of the existing house will not change and the 9 foot encroachment will not be increased; the encroachment is not easy to detect; granting the variance will allow the structure to comply with the current zoning regulations.</t>
+  </si>
+  <si>
+    <t>The board concluded that the applicant has met the standards set forth in North Carolina General Statutes § 160A-388, and more specifically: Unnecessary hardships would result from the strict application of the Ordinance; The hardship results from conditions that are peculiar to the property (location, size or topography); The hardship does not result from actions taken by the applicant.</t>
+  </si>
+  <si>
+    <t>The requested variance is consistent with the spirit, purpose, and intent of the Zoning Ordinance, in that the public safety is secured and substantial justice is achieved.</t>
+  </si>
+  <si>
+    <t>The proposed deviation was caused by an inadvertent error and the property is zoned R-4 (Single-Family) and is required a minimum 5 foot side yard by the Zoning Ordinance Section 9.205(1)(£). On October 9, 2015, building permit B2861676 was issued for a 149 sq. ft. addition to the right side of the dwelling and the project was inspected and issued a Certificate of Compliance on February 4, 2016.</t>
+  </si>
+  <si>
+    <t>The requested deviation is within the dimensional measurement allowed by Section 4.107(2) of the Zoning Ordinance and the encroachment is minor and will not be easily detectable or visible.</t>
+  </si>
+  <si>
+    <t>The Board granted an 11 foot variance from the required 45 foot rear yard to allow an existing addition to remain, based on the property owners, the zoning, the size of the property, the existing structure, and the permit issued for the addition.</t>
+  </si>
+  <si>
+    <t>The applicants provided a survey to show the exact encroachment of 10.2 feet into the rear yard for the purpose of applying for the requested variance.</t>
+  </si>
+  <si>
+    <t>The 2013 addition was permitted, inspected, and issued a certificate of compliance, and Code Section 12.106 allows certain unheated extensions of a single family home to encroach up to 25% of the depth of the required rear yard. An unheated sunroom addition would be permitted an encroachment of up to 11.25 feet into the 45 foot required rear yard.</t>
+  </si>
+  <si>
+    <t>The applicant has met the standards set forth in North Carolina General Statutes § 160A-388, including that unnecessary hardships would result from the strict application of the Ordinance, and that the hardship is not due to the applicant's own actions, and that the granting of the variance does not impact public safety and will not detract from the character of the neighborhood.</t>
+  </si>
+  <si>
+    <t>The circumstances for granting the variance have not changed and therefore the approval for extension has been granted administratively.</t>
+  </si>
+  <si>
+    <t>The administrative decision to extend the approval was granted in accordance with Section 4 .107 ( 4) (Delegated Authority, Procedure) and Section 5 .111 (Effect of grant of variance) of the Charlotte Zoning Ordinance.</t>
+  </si>
+  <si>
+    <t>The proposed deviation was caused by an inadvertent error that occurred during the construction of the residential structure; the applicant's physical survey prepared by Brian McRorie, Land Surveyor, dated July 6, 2019, shows the encroachment into the 30-foot setback; the setback encroachment was discovered when the above survey was completed; the encroachment is minor and will not be easily noticed.</t>
+  </si>
+  <si>
+    <t>The requested deviation is within the dimensional measurement allowed by Section 4.107(2) of the Zoning Ordinance.</t>
   </si>
   <si>
     <t>granted</t>
   </si>
   <si>
-    <t>2019-081ADApprovalLetter.pdf</t>
-  </si>
-  <si>
-    <t>9612 Farmridge Lane</t>
-  </si>
-  <si>
-    <t>allow a 1.6 foot encroachment of a home into the 6 foot side yard</t>
-  </si>
-  <si>
-    <t>The relevant facts are that the property is zoned R-4, the minimum side yard dimensions for R9-CL were 8 feet and 6 feet, the applicant's physical survey shows a 1.6 foot encroachment of the single family home into side yard, the encroachment was caused by an inadvertent error, the encroachment is minor, and the requested deviation is within the dimensional measurement allowed by Section 4.107(2) of the Zoning Ordinance.</t>
-  </si>
-  <si>
-    <t>2019-086ADApprovalLetter.pdf</t>
-  </si>
-  <si>
-    <t>2019-086</t>
-  </si>
-  <si>
-    <t>711 &amp; 715 Westbury Road</t>
-  </si>
-  <si>
-    <t>allow a 2 foot encroachment of an attached deck for each unit to exceed the maximum of 50% of the width of the dwelling at the rear building line for the deck extension per Code Section 12.106(3)</t>
-  </si>
-  <si>
-    <t>The property is zoned R-4 (single family) and has a newly constructed duplex on the property; Code Section 12.106(3) allows certain attached unheated extensions of a duplex to encroach into the rear yard with conditions including a maximum width of the encroachment of 50% of the width of the dwelling at the rear building line; the duplex structure on the property is 38 feet wide at the rear building line of both dwellings; the duplex has a covered deck that exceeds the allowed maximum lot width; the applicant was unaware of the regulation; the permits issued for the duplex dwelling units do not show the covered deck encroachment; the applicant requests an administrative deviation to allow an additional 2 feet of deck width for each dwelling unit; the proposed deviation was caused by an inadvertent error; the encroachment is minor and will not be easily detectable or visible; the requested deviation is within the dimensional measurement allowed by Section 4.107(2) of the Zoning Ordinance.</t>
-  </si>
-  <si>
-    <t>The administrative deviation was granted due to the minor encroachment, the fact that it was caused by an inadvertent error, and that it is within the dimensional measurement allowed by the Zoning Ordinance.</t>
-  </si>
-  <si>
-    <t>2019-087ADApprovalLetter.pdf</t>
-  </si>
-  <si>
-    <t>2019-087</t>
-  </si>
-  <si>
-    <t>2806 Briar Ridge Lane</t>
-  </si>
-  <si>
-    <t>A 1.55 foot encroachment of a screened porch on the rear of the home over the maximum allowed encroachment of 11.25 feet for an unheated extension, and a 2.7 foot encroachment of the left rear of the home into the 45 foot rear yard</t>
-  </si>
-  <si>
-    <t>The relevant facts are: the property is zoned R-3, the home was built in 1985, the minimum rear yard for the R-3 zoning district is 45 feet, the left rear of the home encroaches 2.7 feet into the 45 foot rear yard, the screened porch encroaches 12.8 feet into the 45 foot rear yard, the deviation is within the dimensional measurement allowed by the Zoning Ordinance, the encroachments were discovered when a survey was completed for the sale of the property, the deviation was caused by an inadvertent error during construction, and the encroachment is minor and not easily detectable or visible.</t>
-  </si>
-  <si>
-    <t>The board granted the administrative deviation request due to the fact that the encroachments were minor, caused by an inadvertent error, and were not easily detectable or visible. The deviation was also within the dimensional measurement allowed by the Zoning Ordinance Section 4.107(1).</t>
-  </si>
-  <si>
-    <t>2019-091ADApprovalLetter.pdf</t>
-  </si>
-  <si>
-    <t>2019-091</t>
-  </si>
-  <si>
-    <t>1401 Biltmore Drive</t>
-  </si>
-  <si>
-    <t>allow a 0.7 foot encroachment of a chimney into the 15 foot street side yard, required by the Ordinance</t>
-  </si>
-  <si>
-    <t>The property is a corner lot separated from another corner lot by a common rear lot line, the left side of the property abuts Colville Road, which is classified as a collector street, the minimum setback from the right-of-way along collector streets for the R-4 zoning district is 30 feet, a chimney on the side of the home encroaches 0.7 feet into the 15 foot street side yard, the encroachment was discovered when a survey was completed for the sale of the property, the requested deviation is within the dimensional measurement allowed by the Zoning Ordinance Section 4.107(2), the encroachment is minor and is not easily detectable or visible, and the encroachment is only into the street side yard on the subject property and there is no encroachment that extends beyond the subject property.</t>
-  </si>
-  <si>
-    <t>The requested deviation is within the dimensional measurement allowed by the Zoning Ordinance Section 4.107(2), is minor and is not easily detectable or visible, and is only into the street side yard on the subject property and there is no encroachment that extends beyond the subject property.</t>
+    <t>Granted</t>
   </si>
 </sst>
 </file>
@@ -148,7 +259,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -212,9 +326,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -252,7 +366,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -286,6 +400,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -320,9 +435,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -496,23 +612,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I18" sqref="A1:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.08984375" customWidth="1"/>
-    <col min="6" max="6" width="26.1796875" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="26.26953125" customWidth="1"/>
+    <col min="7" max="7" width="26.1796875" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,123 +655,459 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="174" x14ac:dyDescent="0.35">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="203" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="232" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="203" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="261" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="261" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="319" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="232" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="D18" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="E18" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
+      <c r="G18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>